--- a/figures_tables/Tcell/Tcell_CD4_ST6.xlsx
+++ b/figures_tables/Tcell/Tcell_CD4_ST6.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,11 +396,11 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.3956046402658727</v>
+        <v>0.395605</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>5.964323308849107e-05</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="3">
@@ -424,11 +424,11 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4956228828410297</v>
+        <v>0.495623</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -442,7 +442,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>0.01651057903637954</v>
+        <v>0.016511</v>
       </c>
     </row>
     <row r="4">
@@ -452,11 +452,11 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.905149571789239</v>
+        <v>1.90515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>0.009992238480849736</v>
+        <v>0.009991999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B5">
-        <v>2.059105591463094</v>
+        <v>2.059106</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="F5">
-        <v>0.001204198743548712</v>
+        <v>0.001204</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +508,11 @@
         </is>
       </c>
       <c r="B6">
-        <v>6.025313044855732</v>
+        <v>6.025313</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="F6">
-        <v>0.003141261653755834</v>
+        <v>0.003141</v>
       </c>
     </row>
     <row r="7">
@@ -536,11 +536,11 @@
         </is>
       </c>
       <c r="B7">
-        <v>4.15506054881704</v>
+        <v>4.155061</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="F7">
-        <v>0.01569543898372117</v>
+        <v>0.015695</v>
       </c>
     </row>
     <row r="8">
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="B8">
-        <v>5.395207925013735</v>
+        <v>5.395208</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>0.0007106493378191692</v>
+        <v>0.000711</v>
       </c>
     </row>
     <row r="9">
@@ -592,11 +592,11 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.1903247446085853</v>
+        <v>0.190325</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="F9">
-        <v>0.005269061096929373</v>
+        <v>0.005269</v>
       </c>
     </row>
     <row r="10">
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.1276458093988695</v>
+        <v>0.127646</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>4.488936700131063e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -648,11 +648,11 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.3372330938482745</v>
+        <v>0.337233</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="F11">
-        <v>0.01474948198458481</v>
+        <v>0.014749</v>
       </c>
     </row>
     <row r="12">
@@ -676,11 +676,11 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.1906017279397189</v>
+        <v>0.190602</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="F12">
-        <v>3.35842224092886e-05</v>
+        <v>3.4e-05</v>
       </c>
     </row>
     <row r="13">
@@ -704,11 +704,11 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.1356242500910816</v>
+        <v>0.135624</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="F13">
-        <v>7.993450147680825e-06</v>
+        <v>8e-06</v>
       </c>
     </row>
     <row r="14">
@@ -732,11 +732,11 @@
         </is>
       </c>
       <c r="B14">
-        <v>2.954933471261462</v>
+        <v>2.954933</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="F14">
-        <v>0.001990534489244355</v>
+        <v>0.001991</v>
       </c>
     </row>
     <row r="15">
@@ -760,11 +760,11 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.3204350797326461</v>
+        <v>0.320435</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="F15">
-        <v>3.052814926407521e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -788,11 +788,11 @@
         </is>
       </c>
       <c r="B16">
-        <v>2.173828901100897</v>
+        <v>2.173829</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="F16">
-        <v>0.0009017525739575261</v>
+        <v>0.000902</v>
       </c>
     </row>
     <row r="17">
@@ -816,11 +816,11 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.4487475221846597</v>
+        <v>0.448748</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="F17">
-        <v>0.0001364578205632627</v>
+        <v>0.000136</v>
       </c>
     </row>
     <row r="18">
@@ -844,11 +844,11 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.459096216901957</v>
+        <v>0.459096</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="F18">
-        <v>1.849759911409787e-05</v>
+        <v>1.8e-05</v>
       </c>
     </row>
     <row r="19">
@@ -872,11 +872,11 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.5942328802521325</v>
+        <v>0.594233</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="F19">
-        <v>0.02525256489140393</v>
+        <v>0.025253</v>
       </c>
     </row>
     <row r="20">
@@ -900,11 +900,11 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5941286261259224</v>
+        <v>0.594129</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="F20">
-        <v>0.004209038834431245</v>
+        <v>0.004209</v>
       </c>
     </row>
     <row r="21">
@@ -928,11 +928,11 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.414555507853488</v>
+        <v>0.414556</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -946,21 +946,21 @@
         </is>
       </c>
       <c r="F21">
-        <v>0.008317414398612999</v>
+        <v>0.008317</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0 / 1</t>
+          <t>1 / 2</t>
         </is>
       </c>
       <c r="B22">
-        <v>1.947241823974066</v>
+        <v>0.43305</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -974,21 +974,21 @@
         </is>
       </c>
       <c r="F22">
-        <v>0.01002661305613795</v>
+        <v>0.000407</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>1 / 3</t>
         </is>
       </c>
       <c r="B23">
-        <v>1.959729881693138</v>
+        <v>0.494146</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1002,21 +1002,21 @@
         </is>
       </c>
       <c r="F23">
-        <v>4.849650033211805e-05</v>
+        <v>0.009252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1 / 2</t>
+          <t>1 / 4</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.4417236387412067</v>
+        <v>0.538774</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1030,21 +1030,21 @@
         </is>
       </c>
       <c r="F24">
-        <v>6.890147384053247e-05</v>
+        <v>0.001762</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1 / 3</t>
+          <t>1 / 6</t>
         </is>
       </c>
       <c r="B25">
-        <v>0.3308814325411727</v>
+        <v>0.501409</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1058,21 +1058,21 @@
         </is>
       </c>
       <c r="F25">
-        <v>2.274917657585362e-06</v>
+        <v>0.002269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>1 / 8</t>
         </is>
       </c>
       <c r="B26">
-        <v>0.5344958287771929</v>
+        <v>0.600455</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1086,21 +1086,21 @@
         </is>
       </c>
       <c r="F26">
-        <v>0.002560836044543158</v>
+        <v>0.042126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>0 / 4</t>
         </is>
       </c>
       <c r="B27">
-        <v>0.5210177833968949</v>
+        <v>0.535004</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1114,21 +1114,21 @@
         </is>
       </c>
       <c r="F27">
-        <v>0.002019506832234175</v>
+        <v>0.028669</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2 / 8</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B28">
-        <v>2.278377508122981</v>
+        <v>0.465222</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1142,21 +1142,21 @@
         </is>
       </c>
       <c r="F28">
-        <v>4.421994992398481e-10</v>
+        <v>0.001509</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B29">
-        <v>3.041612808506487</v>
+        <v>0.399252</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1170,21 +1170,21 @@
         </is>
       </c>
       <c r="F29">
-        <v>1.822815232088715e-10</v>
+        <v>1.2e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4 / 8</t>
+          <t>1 / 4</t>
         </is>
       </c>
       <c r="B30">
-        <v>1.882920593817644</v>
+        <v>0.555009</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1198,21 +1198,21 @@
         </is>
       </c>
       <c r="F30">
-        <v>2.841139257192538e-08</v>
+        <v>0.018965</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6 / 8</t>
+          <t>1 / 6</t>
         </is>
       </c>
       <c r="B31">
-        <v>1.931629275209504</v>
+        <v>0.482617</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1226,21 +1226,21 @@
         </is>
       </c>
       <c r="F31">
-        <v>4.320181649086763e-06</v>
+        <v>0.000625</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1 / 2</t>
+          <t>1 / 8</t>
         </is>
       </c>
       <c r="B32">
-        <v>0.3829537762455931</v>
+        <v>0.414181</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1254,21 +1254,21 @@
         </is>
       </c>
       <c r="F32">
-        <v>0.01361545989012991</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1 / 2</t>
+          <t>3 / 8</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.4330500089389001</v>
+        <v>0.400885</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1282,315 +1282,315 @@
         </is>
       </c>
       <c r="F33">
-        <v>0.0004916826888091697</v>
+        <v>0.010042</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1 / 3</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B34">
-        <v>0.4941456908442743</v>
+        <v>0.464689</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F34">
-        <v>0.01035065088231413</v>
+        <v>0.010421</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>3 / 8</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.5387743450634482</v>
+        <v>2.000397</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F35">
-        <v>0.00210359170797858</v>
+        <v>0.005069</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>3 / 8</t>
         </is>
       </c>
       <c r="B36">
-        <v>0.5014088887630682</v>
+        <v>1.768338</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F36">
-        <v>0.003444765371971137</v>
+        <v>0.015674</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1 / 8</t>
+          <t>0 / 1</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.6004547508705184</v>
+        <v>0.419836</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F37">
-        <v>0.04536489681529576</v>
+        <v>0.000343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0 / 4</t>
+          <t>0 / 2</t>
         </is>
       </c>
       <c r="B38">
-        <v>0.535004180522724</v>
+        <v>0.324483</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F38">
-        <v>0.02909664884769469</v>
+        <v>0.015199</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B39">
-        <v>0.465221890756401</v>
+        <v>0.166086</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F39">
-        <v>0.001673583537237122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>0 / 4</t>
         </is>
       </c>
       <c r="B40">
-        <v>0.3992520992178009</v>
+        <v>0.428461</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F40">
-        <v>1.718237664183331e-05</v>
+        <v>0.022977</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B41">
-        <v>0.5550086377910881</v>
+        <v>0.287231</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F41">
-        <v>0.01912684010844867</v>
+        <v>8e-06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B42">
-        <v>0.4826171033038079</v>
+        <v>0.371209</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F42">
-        <v>0.0005383871271005258</v>
+        <v>0.008115000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 / 8</t>
+          <t>1 / 3</t>
         </is>
       </c>
       <c r="B43">
-        <v>0.4141806209917872</v>
+        <v>0.395596</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F43">
-        <v>1.400186177669127e-06</v>
+        <v>6.7e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>3 / 4</t>
         </is>
       </c>
       <c r="B44">
-        <v>0.400885018061404</v>
+        <v>2.579761</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F44">
-        <v>0.01003161216327819</v>
+        <v>0.006307</v>
       </c>
     </row>
     <row r="45">
@@ -1600,16 +1600,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.4646894238226398</v>
+        <v>0.485548</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1618,26 +1618,26 @@
         </is>
       </c>
       <c r="F45">
-        <v>0.01061407240751122</v>
+        <v>0.013987</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>0 / 2</t>
         </is>
       </c>
       <c r="B46">
-        <v>2.000396810986807</v>
+        <v>0.57237</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1646,26 +1646,26 @@
         </is>
       </c>
       <c r="F46">
-        <v>0.004881748150279641</v>
+        <v>0.013496</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B47">
-        <v>1.768338071586448</v>
+        <v>0.411262</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1674,26 +1674,26 @@
         </is>
       </c>
       <c r="F47">
-        <v>0.01566086280274459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0 / 1</t>
+          <t>1 / 2</t>
         </is>
       </c>
       <c r="B48">
-        <v>0.4198358263185545</v>
+        <v>0.567271</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1702,26 +1702,26 @@
         </is>
       </c>
       <c r="F48">
-        <v>0.0002933107917234556</v>
+        <v>0.000618</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0 / 2</t>
+          <t>1 / 3</t>
         </is>
       </c>
       <c r="B49">
-        <v>0.3244833951320534</v>
+        <v>0.407599</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1730,26 +1730,26 @@
         </is>
       </c>
       <c r="F49">
-        <v>0.0153398039329552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>1 / 6</t>
         </is>
       </c>
       <c r="B50">
-        <v>0.1660855733341615</v>
+        <v>0.615457</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1758,26 +1758,26 @@
         </is>
       </c>
       <c r="F50">
-        <v>2.465805337692473e-13</v>
+        <v>0.006951</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0 / 4</t>
+          <t>3 / 4</t>
         </is>
       </c>
       <c r="B51">
-        <v>0.4284611149240038</v>
+        <v>1.939609</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1786,26 +1786,26 @@
         </is>
       </c>
       <c r="F51">
-        <v>0.02307260520246002</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>3 / 6</t>
         </is>
       </c>
       <c r="B52">
-        <v>0.2872310247062816</v>
+        <v>1.509956</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1814,26 +1814,26 @@
         </is>
       </c>
       <c r="F52">
-        <v>6.067472647419692e-06</v>
+        <v>0.01227</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>3 / 8</t>
         </is>
       </c>
       <c r="B53">
-        <v>0.3712087780942691</v>
+        <v>1.868332</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1842,26 +1842,26 @@
         </is>
       </c>
       <c r="F53">
-        <v>0.008134014083118979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1 / 3</t>
+          <t>0 / 2</t>
         </is>
       </c>
       <c r="B54">
-        <v>0.3955964758665986</v>
+        <v>0.575917</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1870,26 +1870,26 @@
         </is>
       </c>
       <c r="F54">
-        <v>9.010753219729217e-05</v>
+        <v>0.034474</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3 / 4</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B55">
-        <v>2.579761181676791</v>
+        <v>0.433009</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1898,21 +1898,21 @@
         </is>
       </c>
       <c r="F55">
-        <v>0.006337762242019429</v>
+        <v>0.00079</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>0 / 4</t>
         </is>
       </c>
       <c r="B56">
-        <v>0.4855479999480419</v>
+        <v>0.574654</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1926,21 +1926,21 @@
         </is>
       </c>
       <c r="F56">
-        <v>0.01394763009324929</v>
+        <v>0.04655</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0 / 2</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B57">
-        <v>0.5723696113514128</v>
+        <v>0.562187</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="F57">
-        <v>0.01322674810260716</v>
+        <v>0.020726</v>
       </c>
     </row>
     <row r="58">
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.4112622686692228</v>
+        <v>0.44442</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1982,26 +1982,26 @@
         </is>
       </c>
       <c r="F58">
-        <v>1.230731566659315e-07</v>
+        <v>0.0009779999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1 / 2</t>
+          <t>0 / 4</t>
         </is>
       </c>
       <c r="B59">
-        <v>0.5672714091812542</v>
+        <v>0.6000760000000001</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2010,26 +2010,26 @@
         </is>
       </c>
       <c r="F59">
-        <v>0.0007489974527102872</v>
+        <v>0.006523</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1 / 3</t>
+          <t>2 / 8</t>
         </is>
       </c>
       <c r="B60">
-        <v>0.4075990794483917</v>
+        <v>1.848952</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2038,26 +2038,26 @@
         </is>
       </c>
       <c r="F60">
-        <v>1.791566894837615e-12</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>3 / 8</t>
         </is>
       </c>
       <c r="B61">
-        <v>0.6154567128149235</v>
+        <v>2.629765</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2066,26 +2066,26 @@
         </is>
       </c>
       <c r="F61">
-        <v>0.006920086390440616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3 / 4</t>
+          <t>4 / 8</t>
         </is>
       </c>
       <c r="B62">
-        <v>1.939609481600694</v>
+        <v>1.947621</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2094,26 +2094,26 @@
         </is>
       </c>
       <c r="F62">
-        <v>5.763532530123072e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3 / 6</t>
+          <t>6 / 8</t>
         </is>
       </c>
       <c r="B63">
-        <v>1.50995609128418</v>
+        <v>2.167771</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2122,26 +2122,26 @@
         </is>
       </c>
       <c r="F63">
-        <v>0.01217774477157008</v>
+        <v>0.000665</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>1 / 2</t>
         </is>
       </c>
       <c r="B64">
-        <v>1.868332391902679</v>
+        <v>0.478892</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2150,26 +2150,26 @@
         </is>
       </c>
       <c r="F64">
-        <v>4.846130285951489e-08</v>
+        <v>0.005945</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0 / 2</t>
+          <t>1 / 3</t>
         </is>
       </c>
       <c r="B65">
-        <v>0.5759172213055623</v>
+        <v>0.588596</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="F65">
-        <v>0.03395653824534128</v>
+        <v>0.008597</v>
       </c>
     </row>
     <row r="66">
@@ -2188,16 +2188,16 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.4330093366359635</v>
+        <v>0.516235</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2206,26 +2206,26 @@
         </is>
       </c>
       <c r="F66">
-        <v>0.0008341224016163995</v>
+        <v>0.001649</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0 / 4</t>
+          <t>1 / 2</t>
         </is>
       </c>
       <c r="B67">
-        <v>0.5746536866156778</v>
+        <v>0.551407</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2234,26 +2234,26 @@
         </is>
       </c>
       <c r="F67">
-        <v>0.04677668492564357</v>
+        <v>0.000167</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>1 / 3</t>
         </is>
       </c>
       <c r="B68">
-        <v>0.5621865141573164</v>
+        <v>0.416414</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2262,21 +2262,21 @@
         </is>
       </c>
       <c r="F68">
-        <v>0.02017042457210105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0 / 2</t>
+          <t>1 / 4</t>
         </is>
       </c>
       <c r="B69">
-        <v>0.6320990860974616</v>
+        <v>0.544139</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2290,21 +2290,21 @@
         </is>
       </c>
       <c r="F69">
-        <v>0.005170482469331605</v>
+        <v>0.000452</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>1 / 6</t>
         </is>
       </c>
       <c r="B70">
-        <v>0.4444200963848107</v>
+        <v>0.558659</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2318,21 +2318,21 @@
         </is>
       </c>
       <c r="F70">
-        <v>5.108137088094544e-06</v>
+        <v>0.000362</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0 / 4</t>
+          <t>1 / 8</t>
         </is>
       </c>
       <c r="B71">
-        <v>0.600076029813963</v>
+        <v>0.666665</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2346,21 +2346,21 @@
         </is>
       </c>
       <c r="F71">
-        <v>4.438216738567036e-08</v>
+        <v>0.046283</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>3 / 8</t>
         </is>
       </c>
       <c r="B72">
-        <v>0.5391346134762601</v>
+        <v>1.600969</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2374,21 +2374,21 @@
         </is>
       </c>
       <c r="F72">
-        <v>0.0181122132590823</v>
+        <v>0.014792</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2 / 8</t>
+          <t>0 / 2</t>
         </is>
       </c>
       <c r="B73">
-        <v>1.848951602672107</v>
+        <v>0.55931</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2402,21 +2402,21 @@
         </is>
       </c>
       <c r="F73">
-        <v>0.0001001750600547746</v>
+        <v>0.046354</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B74">
-        <v>2.629765457940754</v>
+        <v>0.508986</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2430,21 +2430,21 @@
         </is>
       </c>
       <c r="F74">
-        <v>5.316866769078388e-08</v>
+        <v>0.001084</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4 / 8</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B75">
-        <v>1.947620901721079</v>
+        <v>0.510283</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2458,21 +2458,21 @@
         </is>
       </c>
       <c r="F75">
-        <v>2.058726522591314e-10</v>
+        <v>0.018214</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6 / 8</t>
+          <t>1 / 2</t>
         </is>
       </c>
       <c r="B76">
-        <v>2.167771441628906</v>
+        <v>0.609969</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2486,21 +2486,21 @@
         </is>
       </c>
       <c r="F76">
-        <v>0.001577390768685794</v>
+        <v>0.024093</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1 / 2</t>
+          <t>1 / 6</t>
         </is>
       </c>
       <c r="B77">
-        <v>0.4788922686991969</v>
+        <v>0.555087</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2514,21 +2514,21 @@
         </is>
       </c>
       <c r="F77">
-        <v>0.008044290519268249</v>
+        <v>1.1e-05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1 / 3</t>
+          <t>1 / 8</t>
         </is>
       </c>
       <c r="B78">
-        <v>0.5885957858182156</v>
+        <v>0.556501</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2542,441 +2542,441 @@
         </is>
       </c>
       <c r="F78">
-        <v>0.008477397203086934</v>
+        <v>0.008078</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>0 / 1</t>
         </is>
       </c>
       <c r="B79">
-        <v>0.5162347175042544</v>
+        <v>3.37554</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F79">
-        <v>4.574882982921746e-05</v>
+        <v>0.039853</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1 / 2</t>
+          <t>0 / 4</t>
         </is>
       </c>
       <c r="B80">
-        <v>0.5514071408014709</v>
+        <v>2.365377</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F80">
-        <v>0.0001804152383072521</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1 / 3</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B81">
-        <v>0.4164136665222798</v>
+        <v>2.80168</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F81">
-        <v>1.256267312399473e-10</v>
+        <v>1.1e-05</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>0 / 2</t>
         </is>
       </c>
       <c r="B82">
-        <v>0.5441393741117012</v>
+        <v>8.378636</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F82">
-        <v>0.00026213834785771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B83">
-        <v>0.5586592053697161</v>
+        <v>6.244628</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F83">
-        <v>0.0003986875624835129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1 / 8</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B84">
-        <v>0.6666652424253503</v>
+        <v>6.929649</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F84">
-        <v>0.0459892222709708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B85">
-        <v>1.600968690564533</v>
+        <v>5.410758</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F85">
-        <v>0.01450153180611213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0 / 2</t>
+          <t>2 / 4</t>
         </is>
       </c>
       <c r="B86">
-        <v>0.5593096187003975</v>
+        <v>0.209265</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F86">
-        <v>0.008409712092917854</v>
+        <v>2.7e-05</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0 / 4</t>
+          <t>3 / 4</t>
         </is>
       </c>
       <c r="B87">
-        <v>0.6094374179063766</v>
+        <v>0.280778</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F87">
-        <v>5.245803791353865e-13</v>
+        <v>0.00265</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>4 / 6</t>
         </is>
       </c>
       <c r="B88">
-        <v>0.5089863161861684</v>
+        <v>3.952228</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F88">
-        <v>3.300118420868081e-06</v>
+        <v>1.4e-05</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>4 / 8</t>
         </is>
       </c>
       <c r="B89">
-        <v>0.5102829272507529</v>
+        <v>3.08595</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F89">
-        <v>0.002483736615069843</v>
+        <v>0.006923</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1 / 2</t>
+          <t>1 / 4</t>
         </is>
       </c>
       <c r="B90">
-        <v>0.6099685965141398</v>
+        <v>8.655214000000001</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F90">
-        <v>0.02349735756835192</v>
+        <v>0.001675</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>1 / 6</t>
         </is>
       </c>
       <c r="B91">
-        <v>0.6646366771365694</v>
+        <v>10.483401</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F91">
-        <v>0.02289768736016651</v>
+        <v>0.000113</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>1 / 8</t>
         </is>
       </c>
       <c r="B92">
-        <v>0.5550873050429067</v>
+        <v>10.573728</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F92">
-        <v>1.444725681498671e-05</v>
+        <v>5.5e-05</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1 / 8</t>
+          <t>2 / 4</t>
         </is>
       </c>
       <c r="B93">
-        <v>0.5565013555166441</v>
+        <v>5.080725</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>RBD</t>
         </is>
       </c>
       <c r="F93">
-        <v>0.00781447430428539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0 / 4</t>
+          <t>2 / 6</t>
         </is>
       </c>
       <c r="B94">
-        <v>2.365376872194163</v>
+        <v>6.153895</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2990,21 +2990,21 @@
         </is>
       </c>
       <c r="F94">
-        <v>6.656341687838463e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>2 / 8</t>
         </is>
       </c>
       <c r="B95">
-        <v>2.801680060932442</v>
+        <v>6.206918</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3018,21 +3018,21 @@
         </is>
       </c>
       <c r="F95">
-        <v>2.750287586561484e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B96">
-        <v>2.523638274906908</v>
+        <v>0.1652</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3046,21 +3046,21 @@
         </is>
       </c>
       <c r="F96">
-        <v>0.01550006555682282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0 / 2</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B97">
-        <v>8.378636281055117</v>
+        <v>0.176595</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3074,21 +3074,21 @@
         </is>
       </c>
       <c r="F97">
-        <v>2.361089102009828e-11</v>
+        <v>0.009365</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>1 / 4</t>
         </is>
       </c>
       <c r="B98">
-        <v>6.244628362508315</v>
+        <v>4.880107</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3102,21 +3102,21 @@
         </is>
       </c>
       <c r="F98">
-        <v>1.131598815762302e-07</v>
+        <v>0.014843</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>3 / 4</t>
         </is>
       </c>
       <c r="B99">
-        <v>6.929648551524649</v>
+        <v>8.355333</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3130,21 +3130,21 @@
         </is>
       </c>
       <c r="F99">
-        <v>2.206013149930186e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>3 / 6</t>
         </is>
       </c>
       <c r="B100">
-        <v>5.41075774312586</v>
+        <v>2.593201</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3158,21 +3158,21 @@
         </is>
       </c>
       <c r="F100">
-        <v>1.360541385109215e-07</v>
+        <v>0.016329</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2 / 4</t>
+          <t>4 / 6</t>
         </is>
       </c>
       <c r="B101">
-        <v>0.2092646439448722</v>
+        <v>0.310365</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3186,21 +3186,21 @@
         </is>
       </c>
       <c r="F101">
-        <v>1.003244014574634e-05</v>
+        <v>0.035713</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3 / 4</t>
+          <t>4 / 8</t>
         </is>
       </c>
       <c r="B102">
-        <v>0.2807776918519949</v>
+        <v>0.12794</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3214,26 +3214,26 @@
         </is>
       </c>
       <c r="F102">
-        <v>0.002036645032861051</v>
+        <v>0.00214</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4 / 6</t>
+          <t>1 / 3</t>
         </is>
       </c>
       <c r="B103">
-        <v>3.952228197921398</v>
+        <v>0.354941</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3242,26 +3242,26 @@
         </is>
       </c>
       <c r="F103">
-        <v>4.483455567250161e-06</v>
+        <v>0.012246</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>4 / 8</t>
+          <t>3 / 8</t>
         </is>
       </c>
       <c r="B104">
-        <v>3.085950054393246</v>
+        <v>2.507432</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3270,26 +3270,26 @@
         </is>
       </c>
       <c r="F104">
-        <v>0.004913532227820316</v>
+        <v>0.033362</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0 / 4</t>
+          <t>0 / 1</t>
         </is>
       </c>
       <c r="B105">
-        <v>8.185287628340198</v>
+        <v>4.386674</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3298,26 +3298,26 @@
         </is>
       </c>
       <c r="F105">
-        <v>0.004585120430157241</v>
+        <v>0.00444</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>0 / 2</t>
         </is>
       </c>
       <c r="B106">
-        <v>9.914215563714704</v>
+        <v>6.679875</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3326,26 +3326,26 @@
         </is>
       </c>
       <c r="F106">
-        <v>0.0007623448552345202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B107">
-        <v>9.999638126983088</v>
+        <v>7.798845</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3354,26 +3354,26 @@
         </is>
       </c>
       <c r="F107">
-        <v>0.0003361495623360744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>0 / 4</t>
         </is>
       </c>
       <c r="B108">
-        <v>8.655213592755111</v>
+        <v>3.011054</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3382,26 +3382,26 @@
         </is>
       </c>
       <c r="F108">
-        <v>0.001678724307607182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B109">
-        <v>10.48340109777769</v>
+        <v>10.682912</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3410,26 +3410,26 @@
         </is>
       </c>
       <c r="F109">
-        <v>0.0001457370386059864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1 / 8</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B110">
-        <v>10.57372786017131</v>
+        <v>6.146035</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="F110">
-        <v>4.41186072961397e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3448,16 +3448,16 @@
         </is>
       </c>
       <c r="B111">
-        <v>5.080724646732036</v>
+        <v>0.450765</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3466,26 +3466,26 @@
         </is>
       </c>
       <c r="F111">
-        <v>3.914183088760126e-08</v>
+        <v>0.003196</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2 / 6</t>
+          <t>3 / 4</t>
         </is>
       </c>
       <c r="B112">
-        <v>6.153894848261293</v>
+        <v>0.38609</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3494,26 +3494,26 @@
         </is>
       </c>
       <c r="F112">
-        <v>7.771561172376096e-16</v>
+        <v>0.000154</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2 / 8</t>
+          <t>4 / 6</t>
         </is>
       </c>
       <c r="B113">
-        <v>6.206917850297534</v>
+        <v>3.547898</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3522,26 +3522,26 @@
         </is>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.003948</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>1 / 3</t>
         </is>
       </c>
       <c r="B114">
-        <v>0.16519968393388</v>
+        <v>0.309726</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3550,26 +3550,26 @@
         </is>
       </c>
       <c r="F114">
-        <v>7.513781574708389e-08</v>
+        <v>7.499999999999999e-05</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>1 / 4</t>
         </is>
       </c>
       <c r="B115">
-        <v>0.1765947791490121</v>
+        <v>0.493433</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3578,26 +3578,26 @@
         </is>
       </c>
       <c r="F115">
-        <v>0.009371988660112351</v>
+        <v>0.026183</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>1 / 6</t>
         </is>
       </c>
       <c r="B116">
-        <v>4.880106743364791</v>
+        <v>0.424776</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3606,26 +3606,26 @@
         </is>
       </c>
       <c r="F116">
-        <v>0.01459162600913011</v>
+        <v>0.017939</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3 / 4</t>
+          <t>0 / 2</t>
         </is>
       </c>
       <c r="B117">
-        <v>8.355333307441455</v>
+        <v>0.537599</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3634,26 +3634,26 @@
         </is>
       </c>
       <c r="F117">
-        <v>4.855608604081851e-08</v>
+        <v>0.049532</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3 / 6</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B118">
-        <v>2.593200620741755</v>
+        <v>0.363776</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3662,26 +3662,26 @@
         </is>
       </c>
       <c r="F118">
-        <v>0.01658116892390182</v>
+        <v>0.019333</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>4 / 6</t>
+          <t>1 / 3</t>
         </is>
       </c>
       <c r="B119">
-        <v>0.3103647126120259</v>
+        <v>0.381762</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3690,26 +3690,26 @@
         </is>
       </c>
       <c r="F119">
-        <v>0.03522502801968908</v>
+        <v>0.001501</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>4 / 8</t>
+          <t>3 / 8</t>
         </is>
       </c>
       <c r="B120">
-        <v>0.1279395646562485</v>
+        <v>3.700799</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3718,26 +3718,26 @@
         </is>
       </c>
       <c r="F120">
-        <v>0.002211769706073841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1 / 3</t>
+          <t>4 / 8</t>
         </is>
       </c>
       <c r="B121">
-        <v>0.3549405486818525</v>
+        <v>2.332848</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3746,26 +3746,26 @@
         </is>
       </c>
       <c r="F121">
-        <v>0.01237062199605488</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B122">
-        <v>2.507432357193218</v>
+        <v>0.287778</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3774,525 +3774,525 @@
         </is>
       </c>
       <c r="F122">
-        <v>0.03342520103781699</v>
+        <v>0.001057</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0 / 1</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B123">
-        <v>4.386674389348301</v>
+        <v>3.330603</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F123">
-        <v>0.004496413419867284</v>
+        <v>0.00072</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0 / 2</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B124">
-        <v>6.679874998995508</v>
+        <v>1.965567</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>3.4e-05</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B125">
-        <v>7.798844528531139</v>
+        <v>1.678812</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>0.014909</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0 / 4</t>
+          <t>3 / 4</t>
         </is>
       </c>
       <c r="B126">
-        <v>3.011053687364694</v>
+        <v>0.395334</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F126">
-        <v>4.014818929531927e-07</v>
+        <v>0.037251</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>0 / 1</t>
         </is>
       </c>
       <c r="B127">
-        <v>10.68291150792752</v>
+        <v>5.990497</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F127">
-        <v>2.666755705149626e-13</v>
+        <v>0.000203</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>0 / 2</t>
         </is>
       </c>
       <c r="B128">
-        <v>6.146034745390103</v>
+        <v>7.471722</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F128">
-        <v>1.110223024625157e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2 / 4</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B129">
-        <v>0.4507649750657736</v>
+        <v>17.118059</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F129">
-        <v>0.003319981200711752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3 / 4</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B130">
-        <v>0.3860897183357246</v>
+        <v>8.749091</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F130">
-        <v>0.0001645910901562075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>4 / 6</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B131">
-        <v>3.547898050691124</v>
+        <v>11.357063</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F131">
-        <v>0.003874056713740859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1 / 3</t>
+          <t>2 / 4</t>
         </is>
       </c>
       <c r="B132">
-        <v>0.3097256210462321</v>
+        <v>0.288424</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F132">
-        <v>9.080827998630969e-05</v>
+        <v>0.0009120000000000001</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>3 / 4</t>
         </is>
       </c>
       <c r="B133">
-        <v>0.4934332597917755</v>
+        <v>0.125892</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F133">
-        <v>0.02606134586326758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>4 / 6</t>
         </is>
       </c>
       <c r="B134">
-        <v>0.4247763360485702</v>
+        <v>4.059857</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F134">
-        <v>0.01787607189481866</v>
+        <v>2.5e-05</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0 / 2</t>
+          <t>4 / 8</t>
         </is>
       </c>
       <c r="B135">
-        <v>0.5375993942055994</v>
+        <v>5.270039</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F135">
-        <v>0.04976096455252188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>0 / 2</t>
         </is>
       </c>
       <c r="B136">
-        <v>0.363776014737982</v>
+        <v>12.743149</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F136">
-        <v>0.01930760034233303</v>
+        <v>0.002285</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1 / 3</t>
+          <t>0 / 4</t>
         </is>
       </c>
       <c r="B137">
-        <v>0.3817624378604388</v>
+        <v>9.336021000000001</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F137">
-        <v>0.001281775317087064</v>
+        <v>0.042663</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B138">
-        <v>3.700799012330516</v>
+        <v>8.036293000000001</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F138">
-        <v>1.143085626154061e-12</v>
+        <v>0.031977</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>4 / 8</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B139">
-        <v>2.332847795274065</v>
+        <v>13.215177</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F139">
-        <v>6.206129447794417e-06</v>
+        <v>0.005146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>1 / 2</t>
         </is>
       </c>
       <c r="B140">
-        <v>0.2877777862920976</v>
+        <v>8.437783</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>TNFa</t>
+          <t>IFNg</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>NTD</t>
         </is>
       </c>
       <c r="F140">
-        <v>0.001088502712491057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>1 / 4</t>
         </is>
       </c>
       <c r="B141">
-        <v>3.330603114348517</v>
+        <v>6.181778</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4306,21 +4306,21 @@
         </is>
       </c>
       <c r="F141">
-        <v>0.0006426542998103635</v>
+        <v>0.005856</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>1 / 6</t>
         </is>
       </c>
       <c r="B142">
-        <v>1.965566979724232</v>
+        <v>5.321173</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4334,21 +4334,21 @@
         </is>
       </c>
       <c r="F142">
-        <v>4.106193792652313e-05</v>
+        <v>0.000402</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>1 / 8</t>
         </is>
       </c>
       <c r="B143">
-        <v>1.6788120958116</v>
+        <v>8.750332999999999</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>86 (12)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4362,21 +4362,21 @@
         </is>
       </c>
       <c r="F143">
-        <v>0.01496118195986695</v>
+        <v>2.9e-05</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>3 / 4</t>
+          <t>0 / 1</t>
         </is>
       </c>
       <c r="B144">
-        <v>0.3953339240904481</v>
+        <v>0.108131</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4390,21 +4390,21 @@
         </is>
       </c>
       <c r="F144">
-        <v>0.03664415241491692</v>
+        <v>7.3e-05</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0 / 1</t>
+          <t>0 / 2</t>
         </is>
       </c>
       <c r="B145">
-        <v>5.990496567694379</v>
+        <v>0.057845</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4418,21 +4418,21 @@
         </is>
       </c>
       <c r="F145">
-        <v>0.0001947747666871669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0 / 2</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B146">
-        <v>7.471721567373255</v>
+        <v>0.067744</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4446,21 +4446,21 @@
         </is>
       </c>
       <c r="F146">
-        <v>2.004849286585397e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B147">
-        <v>17.11805909274478</v>
+        <v>0.084823</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4474,21 +4474,21 @@
         </is>
       </c>
       <c r="F147">
-        <v>3.219646771412954e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B148">
-        <v>8.749090699722538</v>
+        <v>0.279343</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4502,21 +4502,21 @@
         </is>
       </c>
       <c r="F148">
-        <v>1.990518860850443e-12</v>
+        <v>0.001078</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>2 / 8</t>
         </is>
       </c>
       <c r="B149">
-        <v>11.35706303230652</v>
+        <v>4.829203</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4530,21 +4530,21 @@
         </is>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>0.038068</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2 / 4</t>
+          <t>3 / 4</t>
         </is>
       </c>
       <c r="B150">
-        <v>0.2884240700135695</v>
+        <v>4.773011</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4558,21 +4558,21 @@
         </is>
       </c>
       <c r="F150">
-        <v>0.0009392013921882825</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3 / 4</t>
+          <t>3 / 8</t>
         </is>
       </c>
       <c r="B151">
-        <v>0.1258918626693686</v>
+        <v>4.123483</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4586,26 +4586,26 @@
         </is>
       </c>
       <c r="F151">
-        <v>1.783160685775442e-08</v>
+        <v>0.000688</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>4 / 6</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B152">
-        <v>4.059857013761216</v>
+        <v>3.593557</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4614,26 +4614,26 @@
         </is>
       </c>
       <c r="F152">
-        <v>2.717274491492727e-05</v>
+        <v>5e-06</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>4 / 8</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B153">
-        <v>5.270039320646212</v>
+        <v>3.923187</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4642,26 +4642,26 @@
         </is>
       </c>
       <c r="F153">
-        <v>4.732048086708573e-10</v>
+        <v>6.3e-05</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0 / 2</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B154">
-        <v>12.74314929662736</v>
+        <v>2.98603</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4670,26 +4670,26 @@
         </is>
       </c>
       <c r="F154">
-        <v>0.002381031367699404</v>
+        <v>0.034975</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0 / 4</t>
+          <t>0 / 1</t>
         </is>
       </c>
       <c r="B155">
-        <v>9.336020838304705</v>
+        <v>5.199901</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4698,26 +4698,26 @@
         </is>
       </c>
       <c r="F155">
-        <v>0.04279271685601715</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>0 / 2</t>
         </is>
       </c>
       <c r="B156">
-        <v>8.036292690367747</v>
+        <v>8.622685000000001</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4726,26 +4726,26 @@
         </is>
       </c>
       <c r="F156">
-        <v>0.03210579221997145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B157">
-        <v>13.21517743870964</v>
+        <v>10.535758</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4754,26 +4754,26 @@
         </is>
       </c>
       <c r="F157">
-        <v>0.005147587746101578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1 / 2</t>
+          <t>0 / 4</t>
         </is>
       </c>
       <c r="B158">
-        <v>8.437783378820797</v>
+        <v>2.37948</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4782,26 +4782,26 @@
         </is>
       </c>
       <c r="F158">
-        <v>8.101729231935195e-08</v>
+        <v>0.02074</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>0 / 6</t>
         </is>
       </c>
       <c r="B159">
-        <v>6.181778116232301</v>
+        <v>6.667621</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4810,26 +4810,26 @@
         </is>
       </c>
       <c r="F159">
-        <v>0.005857742345332873</v>
+        <v>1.1e-05</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>0 / 8</t>
         </is>
       </c>
       <c r="B160">
-        <v>5.321172601192896</v>
+        <v>7.420153</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4838,26 +4838,26 @@
         </is>
       </c>
       <c r="F160">
-        <v>0.0003879820087789865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1 / 8</t>
+          <t>1 / 4</t>
         </is>
       </c>
       <c r="B161">
-        <v>8.750333370889997</v>
+        <v>0.457601</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4866,26 +4866,26 @@
         </is>
       </c>
       <c r="F161">
-        <v>2.313129563946692e-05</v>
+        <v>0.006542</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0 / 1</t>
+          <t>2 / 4</t>
         </is>
       </c>
       <c r="B162">
-        <v>0.1081308180170693</v>
+        <v>0.275956</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4894,26 +4894,26 @@
         </is>
       </c>
       <c r="F162">
-        <v>6.705471438961386e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0 / 2</t>
+          <t>3 / 4</t>
         </is>
       </c>
       <c r="B163">
-        <v>0.05784457271088651</v>
+        <v>0.225848</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4922,26 +4922,26 @@
         </is>
       </c>
       <c r="F163">
-        <v>1.231621898911683e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>4 / 6</t>
         </is>
       </c>
       <c r="B164">
-        <v>0.06774446894790806</v>
+        <v>2.802134</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4950,26 +4950,26 @@
         </is>
       </c>
       <c r="F164">
-        <v>1.110223024625157e-16</v>
+        <v>0.021268</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>4 / 8</t>
         </is>
       </c>
       <c r="B165">
-        <v>0.08482296668794105</v>
+        <v>3.118393</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IL-2</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4978,26 +4978,26 @@
         </is>
       </c>
       <c r="F165">
-        <v>2.106675649482526e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>2 / 8</t>
         </is>
       </c>
       <c r="B166">
-        <v>0.2793431988094296</v>
+        <v>2.122469</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5006,26 +5006,26 @@
         </is>
       </c>
       <c r="F166">
-        <v>0.0009436986340769504</v>
+        <v>0.015091</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2 / 8</t>
+          <t>4 / 8</t>
         </is>
       </c>
       <c r="B167">
-        <v>4.829203254825953</v>
+        <v>2.254933</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>7 (1)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5034,26 +5034,26 @@
         </is>
       </c>
       <c r="F167">
-        <v>0.03856567194169869</v>
+        <v>0.003742</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>3 / 4</t>
+          <t>0 / 1</t>
         </is>
       </c>
       <c r="B168">
-        <v>4.773011358713807</v>
+        <v>3.062969</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5062,26 +5062,26 @@
         </is>
       </c>
       <c r="F168">
-        <v>0.02670090965506144</v>
+        <v>0.001549</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>0 / 3</t>
         </is>
       </c>
       <c r="B169">
-        <v>4.123483483562767</v>
+        <v>2.21539</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5090,26 +5090,26 @@
         </is>
       </c>
       <c r="F169">
-        <v>0.0006735091216347744</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>1 / 2</t>
         </is>
       </c>
       <c r="B170">
-        <v>3.593557109282199</v>
+        <v>0.350029</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5118,26 +5118,26 @@
         </is>
       </c>
       <c r="F170">
-        <v>6.489513619034604e-06</v>
+        <v>0.009974999999999999</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>1 / 4</t>
         </is>
       </c>
       <c r="B171">
-        <v>3.923186732861317</v>
+        <v>0.4149</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5146,26 +5146,26 @@
         </is>
       </c>
       <c r="F171">
-        <v>7.565573138690329e-05</v>
+        <v>0.033659</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>2 / 3</t>
         </is>
       </c>
       <c r="B172">
-        <v>2.986030188229007</v>
+        <v>2.066348</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5174,26 +5174,26 @@
         </is>
       </c>
       <c r="F172">
-        <v>0.03501686749730104</v>
+        <v>0.004248</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0 / 1</t>
+          <t>3 / 4</t>
         </is>
       </c>
       <c r="B173">
-        <v>5.199901465933227</v>
+        <v>0.573636</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>30 (4)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5202,26 +5202,26 @@
         </is>
       </c>
       <c r="F173">
-        <v>1.293582371109103e-06</v>
+        <v>0.014999</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0 / 2</t>
+          <t>1 / 8</t>
         </is>
       </c>
       <c r="B174">
-        <v>8.622685250372982</v>
+        <v>0.376163</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5230,26 +5230,26 @@
         </is>
       </c>
       <c r="F174">
-        <v>2.101652185615421e-13</v>
+        <v>0.015315</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>3 / 8</t>
         </is>
       </c>
       <c r="B175">
-        <v>10.5357583575222</v>
+        <v>0.264965</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>169 (24)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>IL-2</t>
+          <t>TNFa</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5258,511 +5258,7 @@
         </is>
       </c>
       <c r="F175">
-        <v>3.25961480029946e-13</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>0 / 4</t>
-        </is>
-      </c>
-      <c r="B176">
-        <v>2.379479976181145</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>IL-2</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F176">
-        <v>0.0212034577777217</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>0 / 6</t>
-        </is>
-      </c>
-      <c r="B177">
-        <v>6.667621069945493</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>IL-2</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F177">
-        <v>1.001514767662304e-05</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>0 / 8</t>
-        </is>
-      </c>
-      <c r="B178">
-        <v>7.420152699428348</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>IL-2</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F178">
-        <v>3.319566843629218e-14</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>1 / 4</t>
-        </is>
-      </c>
-      <c r="B179">
-        <v>0.4576009741280933</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>IL-2</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F179">
-        <v>0.00632489335257147</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2 / 4</t>
-        </is>
-      </c>
-      <c r="B180">
-        <v>0.2759557964936988</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>IL-2</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F180">
-        <v>1.116781778165432e-09</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>3 / 4</t>
-        </is>
-      </c>
-      <c r="B181">
-        <v>0.2258480021499611</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>IL-2</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F181">
-        <v>4.264638975293167e-09</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>4 / 6</t>
-        </is>
-      </c>
-      <c r="B182">
-        <v>2.802133716899958</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>IL-2</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F182">
-        <v>0.02115159224743846</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>4 / 8</t>
-        </is>
-      </c>
-      <c r="B183">
-        <v>3.118392578926862</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>IL-2</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F183">
-        <v>1.467714838554457e-13</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2 / 8</t>
-        </is>
-      </c>
-      <c r="B184">
-        <v>2.122468698142755</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>TNFa</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F184">
-        <v>0.01505764457585901</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>4 / 8</t>
-        </is>
-      </c>
-      <c r="B185">
-        <v>2.254933083660026</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>TNFa</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F185">
-        <v>0.003843827192105964</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>0 / 1</t>
-        </is>
-      </c>
-      <c r="B186">
-        <v>3.06296860824819</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>TNFa</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F186">
-        <v>0.001522306630367565</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>0 / 3</t>
-        </is>
-      </c>
-      <c r="B187">
-        <v>2.215389844040063</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>TNFa</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F187">
-        <v>9.560359085947212e-06</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>1 / 2</t>
-        </is>
-      </c>
-      <c r="B188">
-        <v>0.3500291357972755</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>TNFa</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F188">
-        <v>0.01019940603742808</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>1 / 4</t>
-        </is>
-      </c>
-      <c r="B189">
-        <v>0.4149004244413018</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>TNFa</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F189">
-        <v>0.03356405566807885</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2 / 3</t>
-        </is>
-      </c>
-      <c r="B190">
-        <v>2.066347784302003</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>TNFa</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F190">
-        <v>0.00419442065272313</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>3 / 4</t>
-        </is>
-      </c>
-      <c r="B191">
-        <v>0.5736358226211926</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>TNFa</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F191">
-        <v>0.01494320741746713</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>1 / 8</t>
-        </is>
-      </c>
-      <c r="B192">
-        <v>0.3761634920834823</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>TNFa</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F192">
-        <v>0.01513534885186096</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>3 / 8</t>
-        </is>
-      </c>
-      <c r="B193">
-        <v>0.264964981013789</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>TNFa</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>NTD</t>
-        </is>
-      </c>
-      <c r="F193">
-        <v>0.000438971914965558</v>
+        <v>0.000376</v>
       </c>
     </row>
   </sheetData>
